--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H2">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I2">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J2">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N2">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q2">
-        <v>217.727703929515</v>
+        <v>111.9432515146342</v>
       </c>
       <c r="R2">
-        <v>1959.549335365635</v>
+        <v>1007.489263631708</v>
       </c>
       <c r="S2">
-        <v>0.07298753968747979</v>
+        <v>0.03622898282273806</v>
       </c>
       <c r="T2">
-        <v>0.07298753968747979</v>
+        <v>0.03622898282273807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H3">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I3">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J3">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q3">
-        <v>1570.828036150878</v>
+        <v>731.0456859854684</v>
       </c>
       <c r="R3">
-        <v>14137.4523253579</v>
+        <v>6579.411173869215</v>
       </c>
       <c r="S3">
-        <v>0.5265791700439008</v>
+        <v>0.2365934635795525</v>
       </c>
       <c r="T3">
-        <v>0.5265791700439008</v>
+        <v>0.2365934635795525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H4">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I4">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J4">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N4">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q4">
-        <v>622.6011619142195</v>
+        <v>491.0426104093499</v>
       </c>
       <c r="R4">
-        <v>5603.410457227974</v>
+        <v>4419.383493684149</v>
       </c>
       <c r="S4">
-        <v>0.208710817202188</v>
+        <v>0.1589195780634184</v>
       </c>
       <c r="T4">
-        <v>0.208710817202188</v>
+        <v>0.1589195780634184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H5">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I5">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J5">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N5">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q5">
-        <v>2.363629712855778</v>
+        <v>19.40929748014278</v>
       </c>
       <c r="R5">
-        <v>21.272667415702</v>
+        <v>174.683677321285</v>
       </c>
       <c r="S5">
-        <v>0.0007923452751305179</v>
+        <v>0.006281567629090889</v>
       </c>
       <c r="T5">
-        <v>0.0007923452751305179</v>
+        <v>0.006281567629090889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H6">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I6">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J6">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N6">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O6">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P6">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q6">
-        <v>9.254953265479999</v>
+        <v>10.22451178883911</v>
       </c>
       <c r="R6">
-        <v>83.29457938932001</v>
+        <v>92.02060609955201</v>
       </c>
       <c r="S6">
-        <v>0.00310248193766224</v>
+        <v>0.003309030754036208</v>
       </c>
       <c r="T6">
-        <v>0.00310248193766224</v>
+        <v>0.003309030754036209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H7">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I7">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J7">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>123.860985</v>
       </c>
       <c r="O7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q7">
-        <v>66.77119999110666</v>
+        <v>66.77119999110667</v>
       </c>
       <c r="R7">
-        <v>600.94079991996</v>
+        <v>600.9407999199601</v>
       </c>
       <c r="S7">
-        <v>0.02238330502446871</v>
+        <v>0.02160963367421189</v>
       </c>
       <c r="T7">
-        <v>0.02238330502446871</v>
+        <v>0.0216096336742119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H8">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I8">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J8">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N8">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q8">
-        <v>26.46491260668889</v>
+        <v>44.8501440776569</v>
       </c>
       <c r="R8">
-        <v>238.1842134602</v>
+        <v>403.6512966989121</v>
       </c>
       <c r="S8">
-        <v>0.008871672388699368</v>
+        <v>0.01451516797485859</v>
       </c>
       <c r="T8">
-        <v>0.008871672388699368</v>
+        <v>0.01451516797485859</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H9">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I9">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J9">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N9">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q9">
-        <v>0.1004708272515556</v>
+        <v>1.772778512448889</v>
       </c>
       <c r="R9">
-        <v>0.9042374452640001</v>
+        <v>15.95500661204</v>
       </c>
       <c r="S9">
-        <v>3.368022699504877E-05</v>
+        <v>0.0005737367943759767</v>
       </c>
       <c r="T9">
-        <v>3.368022699504877E-05</v>
+        <v>0.0005737367943759767</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H10">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I10">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J10">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N10">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O10">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P10">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q10">
-        <v>42.125996344575</v>
+        <v>133.3966709756893</v>
       </c>
       <c r="R10">
-        <v>379.133967101175</v>
+        <v>1200.570038781204</v>
       </c>
       <c r="S10">
-        <v>0.01412164265081149</v>
+        <v>0.04317210404377881</v>
       </c>
       <c r="T10">
-        <v>0.0141216426508115</v>
+        <v>0.04317210404377882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H11">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I11">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J11">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>123.860985</v>
       </c>
       <c r="O11">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P11">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q11">
-        <v>303.924098378725</v>
+        <v>871.147295814005</v>
       </c>
       <c r="R11">
-        <v>2735.316885408525</v>
+        <v>7840.325662326045</v>
       </c>
       <c r="S11">
-        <v>0.10188263501635</v>
+        <v>0.2819355342022952</v>
       </c>
       <c r="T11">
-        <v>0.10188263501635</v>
+        <v>0.2819355342022953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H12">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I12">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J12">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N12">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O12">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P12">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q12">
-        <v>120.4609877272083</v>
+        <v>585.1487128481027</v>
       </c>
       <c r="R12">
-        <v>1084.148889544875</v>
+        <v>5266.338415632924</v>
       </c>
       <c r="S12">
-        <v>0.04038140743623014</v>
+        <v>0.1893757987166366</v>
       </c>
       <c r="T12">
-        <v>0.04038140743623014</v>
+        <v>0.1893757987166366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H13">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I13">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J13">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N13">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O13">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P13">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q13">
-        <v>0.4573155131233334</v>
+        <v>23.12900183616167</v>
       </c>
       <c r="R13">
-        <v>4.11583961811</v>
+        <v>208.161016525455</v>
       </c>
       <c r="S13">
-        <v>0.0001533031100837542</v>
+        <v>0.0074854017450068</v>
       </c>
       <c r="T13">
-        <v>0.0001533031100837542</v>
+        <v>0.0074854017450068</v>
       </c>
     </row>
   </sheetData>
